--- a/data/electricity_storage.xlsx
+++ b/data/electricity_storage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\TM_SynergyFlex_Nikola\SynergyFlex\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{914A9A10-F47F-47CD-9BF0-3040828D7AEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46805C70-5A6B-46D7-A55A-534C97BD4F97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="680" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40160" yWindow="1360" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Battery Li-ion" sheetId="1" r:id="rId1"/>
@@ -39,68 +39,22 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="24">
   <si>
-    <t>Paramètres</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Valeurs </t>
-  </si>
-  <si>
-    <t>Unité</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rendement </t>
-  </si>
-  <si>
     <t>%</t>
   </si>
   <si>
-    <t xml:space="preserve">Capex </t>
-  </si>
-  <si>
-    <t>Opex</t>
-  </si>
-  <si>
     <t>CHF/an</t>
   </si>
   <si>
     <t>CHF/kWh</t>
   </si>
   <si>
-    <r>
-      <t>Emission de CO</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
     <t>kg CO2-eq/kWh</t>
   </si>
   <si>
-    <t>Durée de vie</t>
-  </si>
-  <si>
     <t>ans</t>
   </si>
   <si>
-    <t>Capacité min</t>
-  </si>
-  <si>
-    <t>Capacité max</t>
-  </si>
-  <si>
     <t>kWh</t>
-  </si>
-  <si>
-    <t>Densité</t>
   </si>
   <si>
     <r>
@@ -122,26 +76,59 @@
     <t>kW/kWh</t>
   </si>
   <si>
-    <t>C-rate charge max.</t>
-  </si>
-  <si>
-    <t>C-rate décharge max.</t>
-  </si>
-  <si>
-    <t>Capacité</t>
-  </si>
-  <si>
-    <t>SoC max</t>
-  </si>
-  <si>
-    <t>SoC min</t>
+    <t>Parameters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Values </t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Min capacity</t>
+  </si>
+  <si>
+    <t>Max capacity</t>
+  </si>
+  <si>
+    <t>Energy density</t>
+  </si>
+  <si>
+    <t>Efficiency</t>
+  </si>
+  <si>
+    <t>CAPEX</t>
+  </si>
+  <si>
+    <t>OPEX</t>
+  </si>
+  <si>
+    <t>CO2 emissions</t>
+  </si>
+  <si>
+    <t>Max charge C-rate</t>
+  </si>
+  <si>
+    <t>Max discharge C-rate</t>
+  </si>
+  <si>
+    <t>Lifetime</t>
+  </si>
+  <si>
+    <t>SOC max</t>
+  </si>
+  <si>
+    <t>SOC min</t>
+  </si>
+  <si>
+    <t>Capacity</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,14 +138,6 @@
     </font>
     <font>
       <vertAlign val="superscript"/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <vertAlign val="subscript"/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -186,9 +165,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -210,9 +192,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7E334205-0A71-4F5C-BF66-187168C46BDD}" name="Tableau13" displayName="Tableau13" ref="A1:C13" totalsRowShown="0">
   <autoFilter ref="A1:C13" xr:uid="{7E334205-0A71-4F5C-BF66-187168C46BDD}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{61070008-226C-48C2-8155-53E45E9F0B7C}" name="Paramètres"/>
-    <tableColumn id="2" xr3:uid="{30FA11E3-0D2A-4513-83A3-E63DB211DA06}" name="Valeurs "/>
-    <tableColumn id="3" xr3:uid="{AACC6909-DF7C-4027-83B7-D05E6E810964}" name="Unité"/>
+    <tableColumn id="1" xr3:uid="{61070008-226C-48C2-8155-53E45E9F0B7C}" name="Parameters"/>
+    <tableColumn id="2" xr3:uid="{30FA11E3-0D2A-4513-83A3-E63DB211DA06}" name="Values "/>
+    <tableColumn id="3" xr3:uid="{AACC6909-DF7C-4027-83B7-D05E6E810964}" name="Units"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -222,9 +204,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5E6202D9-22FF-482E-BB99-E1D8CDEFDF1D}" name="Tableau133" displayName="Tableau133" ref="A1:C12" totalsRowShown="0">
   <autoFilter ref="A1:C12" xr:uid="{7E334205-0A71-4F5C-BF66-187168C46BDD}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{1B1BD75B-E8E5-4D0A-9784-6B84563A9B31}" name="Paramètres"/>
-    <tableColumn id="2" xr3:uid="{85011725-720A-4151-AE4C-2B88F237738B}" name="Valeurs "/>
-    <tableColumn id="3" xr3:uid="{0934A3B9-E62E-4A3E-A67A-143385CFDDCB}" name="Unité"/>
+    <tableColumn id="1" xr3:uid="{1B1BD75B-E8E5-4D0A-9784-6B84563A9B31}" name="Parameters"/>
+    <tableColumn id="2" xr3:uid="{85011725-720A-4151-AE4C-2B88F237738B}" name="Values "/>
+    <tableColumn id="3" xr3:uid="{0934A3B9-E62E-4A3E-A67A-143385CFDDCB}" name="Units"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -497,7 +479,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -511,145 +493,145 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>100</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>16</v>
+      <c r="A4" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="B4">
         <v>600</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>3</v>
+      <c r="A5" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="B5">
         <v>90</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="B6">
         <v>400</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B7">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B8">
         <v>530</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="16.5" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9">
         <v>0.5</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10">
         <v>0.5</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B11">
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12">
         <v>80</v>
       </c>
       <c r="C12" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13">
         <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -666,7 +648,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -680,137 +662,137 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B2">
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>16</v>
+      <c r="A3" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="B3" s="1">
         <f>B2*1000/(0.54*0.57*0.6)</f>
         <v>54147.714966428415</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="B4">
         <v>90</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>5</v>
+      <c r="A5" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="B5">
         <v>350</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B6">
         <f>216+B5*B2/B10</f>
         <v>356</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B7">
         <f>530*0.2</f>
         <v>106</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8">
         <v>0.2</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9">
         <v>0.2</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B10">
         <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11">
         <v>100</v>
       </c>
       <c r="C11" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
